--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/HAWAII_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/HAWAII_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>San Gabriel</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Yahualica De Gonzalez Gallo</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Marcos Castellanos</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Puruandiro</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tacambaro</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1334,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1347,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1360,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Andres Cabecera Nueva</t>
@@ -1373,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Miguel El Grande</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Santo Tomas Ocotepec</t>
@@ -1399,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -1443,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1456,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1487,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1518,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -1531,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1562,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1593,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1624,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Totutla</t>
@@ -1637,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1668,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
